--- a/Trees/example_tree1.xlsx
+++ b/Trees/example_tree1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Роман-доки\Мои документы\ПИТОН\Форсайт\Trees\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBD38C07-2991-425A-802C-4A8EA88018C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FBA9502-CDE5-445E-A74E-E574A038D8C3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11310" yWindow="4410" windowWidth="21600" windowHeight="12750" xr2:uid="{464BC97B-3F3F-497D-A6F0-92B17D6D5245}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{464BC97B-3F3F-497D-A6F0-92B17D6D5245}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
   <si>
     <t>объект</t>
   </si>
@@ -67,6 +69,42 @@
   </si>
   <si>
     <t>класс22</t>
+  </si>
+  <si>
+    <t>классификатор3</t>
+  </si>
+  <si>
+    <t>класс31</t>
+  </si>
+  <si>
+    <t>класс32</t>
+  </si>
+  <si>
+    <t>классификатор4</t>
+  </si>
+  <si>
+    <t>классификатор5</t>
+  </si>
+  <si>
+    <t>классификатор6</t>
+  </si>
+  <si>
+    <t>класс41</t>
+  </si>
+  <si>
+    <t>класс51</t>
+  </si>
+  <si>
+    <t>класс61</t>
+  </si>
+  <si>
+    <t>класс54</t>
+  </si>
+  <si>
+    <t>класс65</t>
+  </si>
+  <si>
+    <t>класс42</t>
   </si>
 </sst>
 </file>
@@ -429,7 +467,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C6" sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -508,4 +546,156 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62B513B6-75CD-4230-B778-6F35A0954E58}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{663F4383-1F80-40CC-A262-054DC213876E}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>